--- a/scripts/pathway_testing/test_pathways.xlsx
+++ b/scripts/pathway_testing/test_pathways.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Will/Dropbox (Personal)/Python_Projects/retrobiocat_web/scripts/pathway_testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Will/Dropbox (Personal)/Python_Projects/retrobiocat/scripts/pathway_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F79CC4-CB03-4C4F-B89B-A88C6131E889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905844A0-C407-C446-8ACF-385994052220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/scripts/pathway_testing/test_pathways.xlsx
+++ b/scripts/pathway_testing/test_pathways.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Will/Dropbox (Personal)/Python_Projects/retrobiocat/scripts/pathway_testing/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905844A0-C407-C446-8ACF-385994052220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="198">
   <si>
     <t>Target Product</t>
   </si>
@@ -43,6 +37,24 @@
     <t>v180620_default_time (s)</t>
   </si>
   <si>
+    <t>v0.12.2_no_literature_any_rank</t>
+  </si>
+  <si>
+    <t>v0.12.2_no_literature_absolute_rank</t>
+  </si>
+  <si>
+    <t>v0.12.2_no_literature_time (s)</t>
+  </si>
+  <si>
+    <t>v0.12.2_default_2_any_rank</t>
+  </si>
+  <si>
+    <t>v0.12.2_default_2_absolute_rank</t>
+  </si>
+  <si>
+    <t>v0.12.2_default_2_time (s)</t>
+  </si>
+  <si>
     <t>Num</t>
   </si>
   <si>
@@ -133,7 +145,7 @@
     <t>NC[C@H](O)[C@H](O)CO</t>
   </si>
   <si>
-    <t>CCCCCCCCOC(=O)CCCCCCCCC(=O)O</t>
+    <t>C(O)(=O)CCCCCCCC(=O)O</t>
   </si>
   <si>
     <t>CC(O)[C@@H](O)c1ccccc1</t>
@@ -238,6 +250,9 @@
     <t>O=C(/C=C/c1ccc(F)cc1)O</t>
   </si>
   <si>
+    <t>C=C(C)C1=CCC(C)CC1</t>
+  </si>
+  <si>
     <t>C=Cc1ccccc1</t>
   </si>
   <si>
@@ -256,6 +271,9 @@
     <t>CCCCC/C=C\C\C=C/CCCCCCCC(=O)O</t>
   </si>
   <si>
+    <t>CC=C(C)C1=NCCCC1</t>
+  </si>
+  <si>
     <t>C1CCC(NC1)c1ccccc1</t>
   </si>
   <si>
@@ -337,13 +355,13 @@
     <t>TPL, TAL, DC</t>
   </si>
   <si>
-    <t>AmDH, KRED-ADH(NAD), P450</t>
-  </si>
-  <si>
-    <t>IRED, KRED-ADH(NAD)</t>
-  </si>
-  <si>
-    <t>Phosphopentomutase, DERA Aldolase, PNP</t>
+    <t>AmDH, ADH, P450</t>
+  </si>
+  <si>
+    <t>IRED, ADH</t>
+  </si>
+  <si>
+    <t>PPM, DERA Aldolase, PNP</t>
   </si>
   <si>
     <t>AlOx, Kinase</t>
@@ -355,13 +373,13 @@
     <t>Aldolase, TA</t>
   </si>
   <si>
-    <t>TA, ERED(NADP)</t>
+    <t>TA, ERED</t>
   </si>
   <si>
     <t>TA, CMT</t>
   </si>
   <si>
-    <t>BVMO, KRED-ADH(NAD)</t>
+    <t>BVMO, ADH</t>
   </si>
   <si>
     <t>TPL, AAD, AADH</t>
@@ -373,37 +391,37 @@
     <t>PAL, AAD</t>
   </si>
   <si>
-    <t>P450, KRED-ADH(NAD), TA</t>
-  </si>
-  <si>
-    <t>AlDH, KRED-ADH(NAD), EH, SMO</t>
-  </si>
-  <si>
-    <t>TA, KRED-ADH(NAD), EH, SMO</t>
+    <t>P450, ADH, TA</t>
+  </si>
+  <si>
+    <t>P450, ERED, BVMO, ADH</t>
+  </si>
+  <si>
+    <t>AlDH, ADH, EH, SMO</t>
+  </si>
+  <si>
+    <t>TA, ADH, EH, SMO</t>
   </si>
   <si>
     <t>AlOx, IRED</t>
   </si>
   <si>
-    <t>TDL, KRED-ADH(NAD)</t>
-  </si>
-  <si>
-    <t>PAL, CAR, KRED-ADH(NAD)</t>
+    <t>TDL, ADH</t>
+  </si>
+  <si>
+    <t>PAL, CAR, ADH</t>
   </si>
   <si>
     <t>CAR, TA</t>
   </si>
   <si>
-    <t>IRED, ERED(NAD)</t>
+    <t>IRED, ERED</t>
   </si>
   <si>
     <t>AmOx, IRED</t>
   </si>
   <si>
-    <t>IRED, KRED-ADH(NADP)</t>
-  </si>
-  <si>
-    <t>TA, KRED-ADH(NAD)</t>
+    <t>TA, ADH</t>
   </si>
   <si>
     <t>TA</t>
@@ -412,13 +430,13 @@
     <t>TA, AlOx</t>
   </si>
   <si>
-    <t>KRED-ADH(NAD), BVMO, Hydratase</t>
+    <t>ADH, BVMO, Hydratase</t>
   </si>
   <si>
     <t>EH, SMO</t>
   </si>
   <si>
-    <t>AmDH, KRED-ADH(NAD)</t>
+    <t>AmDH, ADH</t>
   </si>
   <si>
     <t>TrpS, AAD, TA</t>
@@ -430,7 +448,7 @@
     <t>AlOx, XOR</t>
   </si>
   <si>
-    <t>AlOx, KRED-ADH(NAD)</t>
+    <t>AlOx, ADH</t>
   </si>
   <si>
     <t>TA, IRED</t>
@@ -451,13 +469,13 @@
     <t>TPL, TAM</t>
   </si>
   <si>
-    <t>AlOx, TDL, KRED-ADH(NAD)</t>
+    <t>AlOx, TDL, ADH</t>
   </si>
   <si>
     <t>Lipase, TA</t>
   </si>
   <si>
-    <t>EH, KRED-ADH(NAD), TA</t>
+    <t>EH, ADH, TA</t>
   </si>
   <si>
     <t>CAR, IRED</t>
@@ -590,22 +608,13 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1039/c8cy02377h </t>
-  </si>
-  <si>
-    <t>C=C(C)C1=CCC(C)CC1</t>
-  </si>
-  <si>
-    <t>P450, ERED(NADP), BVMO, KRED-ADH(NAD)</t>
-  </si>
-  <si>
-    <t>CC=C(C)C1=NCCCC1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,14 +690,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -735,7 +736,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,27 +768,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,24 +802,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1012,22 +977,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1050,22 +1009,40 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -1076,22 +1053,40 @@
       <c r="H2">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>51</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1102,22 +1097,40 @@
       <c r="H3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -1128,22 +1141,40 @@
       <c r="H4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1154,22 +1185,40 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1180,22 +1229,40 @@
       <c r="H6">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1206,22 +1273,40 @@
       <c r="H7">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>65</v>
+      </c>
+      <c r="K7">
+        <v>71</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>65</v>
+      </c>
+      <c r="N7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1232,22 +1317,40 @@
       <c r="H8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -1258,22 +1361,40 @@
       <c r="H9">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>146</v>
+      </c>
+      <c r="K9">
+        <v>242</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>166</v>
+      </c>
+      <c r="N9">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1284,22 +1405,40 @@
       <c r="H10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1310,22 +1449,40 @@
       <c r="H11">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>56</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1333,22 +1490,34 @@
       <c r="H12">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>78</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F13">
         <v>14</v>
@@ -1359,22 +1528,40 @@
       <c r="H13">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>107</v>
+      </c>
+      <c r="K13">
+        <v>189</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1385,22 +1572,40 @@
       <c r="H14">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>34</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F15">
         <v>32</v>
@@ -1408,22 +1613,34 @@
       <c r="H15">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>112</v>
+      </c>
+      <c r="L15">
+        <v>53</v>
+      </c>
+      <c r="N15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1434,22 +1651,40 @@
       <c r="H16">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>95</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -1460,42 +1695,66 @@
       <c r="H17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H18">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>82</v>
+      </c>
+      <c r="N18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -1506,22 +1765,34 @@
       <c r="H19">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>265</v>
+      </c>
+      <c r="K19">
+        <v>158</v>
+      </c>
+      <c r="L19">
+        <v>203</v>
+      </c>
+      <c r="N19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1532,22 +1803,40 @@
       <c r="H20">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>150</v>
+      </c>
+      <c r="J20">
+        <v>150</v>
+      </c>
+      <c r="K20">
+        <v>107</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1558,22 +1847,40 @@
       <c r="H21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>39</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -1584,22 +1891,40 @@
       <c r="H22">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>57</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>25</v>
+      </c>
+      <c r="N22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F23">
         <v>486</v>
@@ -1607,22 +1932,40 @@
       <c r="H23">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>46</v>
+      </c>
+      <c r="J23">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>47</v>
+      </c>
+      <c r="L23">
+        <v>46</v>
+      </c>
+      <c r="M23">
+        <v>46</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -1633,22 +1976,40 @@
       <c r="H24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <v>67</v>
+      </c>
+      <c r="K24">
+        <v>74</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+      <c r="N24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1659,22 +2020,40 @@
       <c r="H25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>72</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F26">
         <v>12</v>
@@ -1685,22 +2064,40 @@
       <c r="H26">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -1711,22 +2108,40 @@
       <c r="H27">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>23</v>
+      </c>
+      <c r="J27">
+        <v>23</v>
+      </c>
+      <c r="K27">
+        <v>16</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -1737,22 +2152,40 @@
       <c r="H28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1760,22 +2193,34 @@
       <c r="H29">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>190</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1786,22 +2231,40 @@
       <c r="H30">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>56</v>
+      </c>
+      <c r="K30">
+        <v>28</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -1812,22 +2275,40 @@
       <c r="H31">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>249</v>
+      </c>
+      <c r="K31">
+        <v>330</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -1838,22 +2319,28 @@
       <c r="H32">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>234</v>
+      </c>
+      <c r="N32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F33">
         <v>18</v>
@@ -1864,22 +2351,40 @@
       <c r="H33">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>918</v>
+      </c>
+      <c r="J33">
+        <v>1583</v>
+      </c>
+      <c r="K33">
+        <v>37</v>
+      </c>
+      <c r="L33">
+        <v>46</v>
+      </c>
+      <c r="M33">
+        <v>159</v>
+      </c>
+      <c r="N33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F34">
         <v>11</v>
@@ -1890,22 +2395,40 @@
       <c r="H34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>347</v>
+      </c>
+      <c r="K34">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>93</v>
+      </c>
+      <c r="N34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F35">
         <v>14</v>
@@ -1913,22 +2436,34 @@
       <c r="H35">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>78</v>
+      </c>
+      <c r="K35">
+        <v>83</v>
+      </c>
+      <c r="L35">
+        <v>45</v>
+      </c>
+      <c r="N35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1939,22 +2474,40 @@
       <c r="H36">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>12</v>
+      </c>
+      <c r="K36">
+        <v>64</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -1965,22 +2518,40 @@
       <c r="H37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -1991,22 +2562,40 @@
       <c r="H38">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>69</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F39">
         <v>31</v>
@@ -2017,22 +2606,28 @@
       <c r="H39">
         <v>126</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>137</v>
+      </c>
+      <c r="N39">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2043,22 +2638,40 @@
       <c r="H40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2066,22 +2679,40 @@
       <c r="H41">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>19</v>
+      </c>
+      <c r="J41">
+        <v>8640</v>
+      </c>
+      <c r="K41">
+        <v>81</v>
+      </c>
+      <c r="L41">
+        <v>21</v>
+      </c>
+      <c r="M41">
+        <v>8646</v>
+      </c>
+      <c r="N41">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2092,22 +2723,40 @@
       <c r="H42">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>83</v>
+      </c>
+      <c r="K42">
+        <v>13</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>44</v>
+      </c>
+      <c r="N42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -2118,22 +2767,40 @@
       <c r="H43">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>24</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -2144,22 +2811,40 @@
       <c r="H44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2170,22 +2855,40 @@
       <c r="H45">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>66</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2196,22 +2899,40 @@
       <c r="H46">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>76</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+      <c r="N46">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -2219,22 +2940,34 @@
       <c r="H47">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>146</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -2245,22 +2978,40 @@
       <c r="H48">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>44</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F49">
         <v>27</v>
@@ -2271,22 +3022,40 @@
       <c r="H49">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>29</v>
+      </c>
+      <c r="J49">
+        <v>406</v>
+      </c>
+      <c r="K49">
+        <v>45</v>
+      </c>
+      <c r="L49">
+        <v>21</v>
+      </c>
+      <c r="M49">
+        <v>80</v>
+      </c>
+      <c r="N49">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -2297,22 +3066,40 @@
       <c r="H50">
         <v>223</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>315</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F51">
         <v>12</v>
@@ -2323,22 +3110,40 @@
       <c r="H51">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <v>446</v>
+      </c>
+      <c r="K51">
+        <v>41</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>548</v>
+      </c>
+      <c r="N51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -2349,22 +3154,40 @@
       <c r="H52">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>29</v>
+      </c>
+      <c r="J52">
+        <v>87</v>
+      </c>
+      <c r="K52">
+        <v>35</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>46</v>
+      </c>
+      <c r="N52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -2375,61 +3198,79 @@
       <c r="H53">
         <v>5</v>
       </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <v>32</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/pathway_testing/test_pathways.xlsx
+++ b/scripts/pathway_testing/test_pathways.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="201">
   <si>
     <t>Target Product</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>v0.12.2_default_2_time (s)</t>
+  </si>
+  <si>
+    <t>v0.12.3_default_2_any_rank</t>
+  </si>
+  <si>
+    <t>v0.12.3_default_2_absolute_rank</t>
+  </si>
+  <si>
+    <t>v0.12.3_default_2_time (s)</t>
   </si>
   <si>
     <t>Num</t>
@@ -978,15 +987,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1027,22 +1036,31 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -1071,22 +1089,31 @@
       <c r="N2">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="P2">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1115,22 +1142,31 @@
       <c r="N3">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -1159,22 +1195,31 @@
       <c r="N4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1203,22 +1248,31 @@
       <c r="N5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1247,22 +1301,31 @@
       <c r="N6">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1291,22 +1354,31 @@
       <c r="N7">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1926</v>
+      </c>
+      <c r="Q7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1335,22 +1407,31 @@
       <c r="N8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -1379,22 +1460,28 @@
       <c r="N9">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1423,22 +1510,31 @@
       <c r="N10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1467,22 +1563,31 @@
       <c r="N11">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1502,22 +1607,25 @@
       <c r="N12">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="Q12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F13">
         <v>14</v>
@@ -1546,22 +1654,28 @@
       <c r="N13">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>16</v>
+      </c>
+      <c r="Q13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1590,22 +1704,31 @@
       <c r="N14">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F15">
         <v>32</v>
@@ -1625,22 +1748,28 @@
       <c r="N15">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>55</v>
+      </c>
+      <c r="Q15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1669,22 +1798,31 @@
       <c r="N16">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -1713,22 +1851,31 @@
       <c r="N17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H18">
         <v>28</v>
@@ -1739,22 +1886,25 @@
       <c r="N18">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="Q18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -1777,22 +1927,28 @@
       <c r="N19">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>862</v>
+      </c>
+      <c r="Q19">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1821,22 +1977,31 @@
       <c r="N20">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1865,22 +2030,31 @@
       <c r="N21">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -1909,22 +2083,31 @@
       <c r="N22">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>37</v>
+      </c>
+      <c r="Q22">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F23">
         <v>486</v>
@@ -1950,22 +2133,31 @@
       <c r="N23">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>136</v>
+      </c>
+      <c r="P23">
+        <v>136</v>
+      </c>
+      <c r="Q23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -1994,22 +2186,31 @@
       <c r="N24">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>9</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2038,22 +2239,31 @@
       <c r="N25">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26">
         <v>12</v>
@@ -2082,22 +2292,31 @@
       <c r="N26">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>12</v>
+      </c>
+      <c r="P26">
+        <v>12</v>
+      </c>
+      <c r="Q26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -2126,22 +2345,31 @@
       <c r="N27">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -2170,22 +2398,31 @@
       <c r="N28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -2205,22 +2442,28 @@
       <c r="N29">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -2249,22 +2492,31 @@
       <c r="N30">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -2293,22 +2545,31 @@
       <c r="N31">
         <v>224</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+      <c r="Q31">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -2325,22 +2586,25 @@
       <c r="N32">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="Q32">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F33">
         <v>18</v>
@@ -2369,22 +2633,31 @@
       <c r="N33">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>142</v>
+      </c>
+      <c r="P33">
+        <v>731</v>
+      </c>
+      <c r="Q33">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F34">
         <v>11</v>
@@ -2413,22 +2686,31 @@
       <c r="N34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34">
+        <v>154</v>
+      </c>
+      <c r="Q34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F35">
         <v>14</v>
@@ -2448,22 +2730,28 @@
       <c r="N35">
         <v>132</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>48</v>
+      </c>
+      <c r="Q35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2492,22 +2780,31 @@
       <c r="N36">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -2536,22 +2833,31 @@
       <c r="N37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -2580,22 +2886,31 @@
       <c r="N38">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F39">
         <v>31</v>
@@ -2612,22 +2927,25 @@
       <c r="N39">
         <v>158</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="Q39">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2656,22 +2974,31 @@
       <c r="N40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2697,22 +3024,31 @@
       <c r="N41">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41">
+        <v>32</v>
+      </c>
+      <c r="P41">
+        <v>29629</v>
+      </c>
+      <c r="Q41">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2741,22 +3077,31 @@
       <c r="N42">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>44</v>
+      </c>
+      <c r="Q42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -2785,22 +3130,31 @@
       <c r="N43">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -2829,22 +3183,31 @@
       <c r="N44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2873,22 +3236,31 @@
       <c r="N45">
         <v>75</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2917,22 +3289,31 @@
       <c r="N46">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -2952,22 +3333,28 @@
       <c r="N47">
         <v>162</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -2996,22 +3383,31 @@
       <c r="N48">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>15</v>
+      </c>
+      <c r="Q48">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F49">
         <v>27</v>
@@ -3040,22 +3436,31 @@
       <c r="N49">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49">
+        <v>20</v>
+      </c>
+      <c r="P49">
+        <v>101</v>
+      </c>
+      <c r="Q49">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -3084,22 +3489,31 @@
       <c r="N50">
         <v>390</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F51">
         <v>12</v>
@@ -3128,22 +3542,31 @@
       <c r="N51">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51">
+        <v>24</v>
+      </c>
+      <c r="P51">
+        <v>514</v>
+      </c>
+      <c r="Q51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -3172,22 +3595,31 @@
       <c r="N52">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>10</v>
+      </c>
+      <c r="Q52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -3215,6 +3647,15 @@
       </c>
       <c r="N53">
         <v>41</v>
+      </c>
+      <c r="O53">
+        <v>5</v>
+      </c>
+      <c r="P53">
+        <v>5</v>
+      </c>
+      <c r="Q53">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/pathway_testing/test_pathways.xlsx
+++ b/scripts/pathway_testing/test_pathways.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Will/Dropbox (Personal)/Python_Projects/retrobiocat/scripts/pathway_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B471CC-D1DA-114D-9B27-E002C6648CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0048FE6-3EB1-5B41-B02D-229DF032FB41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -961,11 +961,12 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
     <col min="7" max="7" width="37.6640625" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" customWidth="1"/>
@@ -1680,15 +1681,6 @@
       <c r="E28" t="s">
         <v>106</v>
       </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
